--- a/Projects/PEM_Spring/PEM Reqirement Analysis/Database_Table.xlsx
+++ b/Projects/PEM_Spring/PEM Reqirement Analysis/Database_Table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
   <si>
     <t>Table:</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>userid</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5:M20"/>
+  <dimension ref="B5:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
@@ -682,39 +685,63 @@
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="9:13">
-      <c r="I18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="2">
-        <v>45</v>
-      </c>
+      <c r="I18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="9:13">
-      <c r="I19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="5" t="s">
+      <c r="I19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K19" s="2">
         <v>10</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="9:13">
+      <c r="I20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="2">
+        <v>45</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="9:13">
+      <c r="I21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="2">
+        <v>10</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="9:13">
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="9:13">
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
